--- a/KEYS_EMISSOR.xlsx
+++ b/KEYS_EMISSOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\tratamento-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA70D0-887D-4D57-84EF-5555876B6F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362101D-4EA8-4A71-99A1-8ED4009EA83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,25 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$187</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="334">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -838,9 +849,6 @@
     <t>OMNI BANCO</t>
   </si>
   <si>
-    <t>OMNI SCFI</t>
-  </si>
-  <si>
     <t>OMNI</t>
   </si>
   <si>
@@ -1003,17 +1011,38 @@
     <t>ZEMA</t>
   </si>
   <si>
-    <t>teste</t>
-  </si>
-  <si>
     <t>CONGLOMERADO: MASTER, WILL, VOITER E LETSBANK</t>
+  </si>
+  <si>
+    <t>BANCO OMNI</t>
+  </si>
+  <si>
+    <t>OMNI FINANCEIRA</t>
+  </si>
+  <si>
+    <t>NEON/BIORC SCFI</t>
+  </si>
+  <si>
+    <t>OMNI BANCO/OMNI SCFI</t>
+  </si>
+  <si>
+    <t>PARANÁ BANCO S.A.</t>
+  </si>
+  <si>
+    <t>PARANA BANCO S/A</t>
+  </si>
+  <si>
+    <t>BANCO PARANA</t>
+  </si>
+  <si>
+    <t>PARANÁ BACO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1054,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1062,11 +1099,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1369,11 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1405,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1416,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1427,7 +1465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1460,7 +1498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1471,7 +1509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1482,7 +1520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1493,7 +1531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1504,7 +1542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1515,7 +1553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1526,7 +1564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1537,7 +1575,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1548,7 +1586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1559,7 +1597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1570,7 +1608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1581,7 +1619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1592,7 +1630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1603,7 +1641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1614,7 +1652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1625,7 +1663,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1636,7 +1674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1647,7 +1685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1658,7 +1696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1669,7 +1707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1680,7 +1718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1691,7 +1729,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1702,7 +1740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1713,7 +1751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1724,7 +1762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1735,7 +1773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +1784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1757,7 +1795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -1768,7 +1806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1779,7 +1817,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1790,7 +1828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -1801,7 +1839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1812,7 +1850,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1823,7 +1861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -1834,7 +1872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -1845,7 +1883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1856,7 +1894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -1867,7 +1905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -1878,7 +1916,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -1889,7 +1927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -1900,7 +1938,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -1911,7 +1949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1922,7 +1960,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -1933,7 +1971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -1944,7 +1982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -1955,7 +1993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -1968,7 +2006,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B54" t="s">
         <v>99</v>
@@ -1977,7 +2015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -1988,7 +2026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -1999,7 +2037,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -2010,7 +2048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -2021,7 +2059,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -2034,7 +2072,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s">
         <v>109</v>
@@ -2043,7 +2081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -2056,7 +2094,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s">
         <v>112</v>
@@ -2065,7 +2103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -2076,7 +2114,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -2087,7 +2125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -2098,7 +2136,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -2109,7 +2147,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -2120,7 +2158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -2131,7 +2169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -2142,7 +2180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -2153,7 +2191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2164,7 +2202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -2175,7 +2213,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -2186,7 +2224,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -2197,7 +2235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -2208,7 +2246,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -2219,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>142</v>
       </c>
@@ -2230,7 +2268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -2241,7 +2279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -2252,7 +2290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -2263,7 +2301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -2274,7 +2312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -2285,7 +2323,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -2296,7 +2334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -2307,7 +2345,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>155</v>
       </c>
@@ -2318,7 +2356,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>157</v>
       </c>
@@ -2329,7 +2367,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -2340,7 +2378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -2351,7 +2389,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>160</v>
       </c>
@@ -2362,7 +2400,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -2373,7 +2411,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>160</v>
       </c>
@@ -2384,7 +2422,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -2395,7 +2433,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>160</v>
       </c>
@@ -2406,7 +2444,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>167</v>
       </c>
@@ -2417,7 +2455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>169</v>
       </c>
@@ -2428,7 +2466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>171</v>
       </c>
@@ -2439,7 +2477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -2450,7 +2488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>175</v>
       </c>
@@ -2461,7 +2499,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>175</v>
       </c>
@@ -2472,7 +2510,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>178</v>
       </c>
@@ -2483,7 +2521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -2494,7 +2532,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -2505,7 +2543,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -2516,7 +2554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>183</v>
       </c>
@@ -2527,7 +2565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -2538,7 +2576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -2549,18 +2587,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" t="s">
         <v>188</v>
-      </c>
-      <c r="B107" t="s">
-        <v>189</v>
       </c>
       <c r="C107" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>191</v>
       </c>
@@ -2571,7 +2609,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -2582,7 +2620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -2593,7 +2631,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>196</v>
       </c>
@@ -2604,7 +2642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>198</v>
       </c>
@@ -2615,7 +2653,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>201</v>
       </c>
@@ -2626,7 +2664,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>201</v>
       </c>
@@ -2637,7 +2675,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -2648,7 +2686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -2659,7 +2697,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>209</v>
       </c>
@@ -2670,7 +2708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>211</v>
       </c>
@@ -2681,7 +2719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>161</v>
       </c>
@@ -2692,7 +2730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>214</v>
       </c>
@@ -2703,7 +2741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>216</v>
       </c>
@@ -2714,7 +2752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>218</v>
       </c>
@@ -2725,7 +2763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>220</v>
       </c>
@@ -2736,7 +2774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -2747,7 +2785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -2758,7 +2796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>225</v>
       </c>
@@ -2769,7 +2807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>227</v>
       </c>
@@ -2780,7 +2818,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>230</v>
       </c>
@@ -2791,7 +2829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -2802,7 +2840,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>235</v>
       </c>
@@ -2813,7 +2851,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>237</v>
       </c>
@@ -2824,7 +2862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>239</v>
       </c>
@@ -2835,7 +2873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>241</v>
       </c>
@@ -2846,7 +2884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>243</v>
       </c>
@@ -2857,7 +2895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>245</v>
       </c>
@@ -2868,7 +2906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>247</v>
       </c>
@@ -2879,7 +2917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>249</v>
       </c>
@@ -2890,7 +2928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>251</v>
       </c>
@@ -2901,7 +2939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>253</v>
       </c>
@@ -2912,7 +2950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -2923,7 +2961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -2934,7 +2972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -2945,7 +2983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -2956,7 +2994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +3005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -2978,7 +3016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -2989,7 +3027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3000,7 +3038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3011,7 +3049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>263</v>
       </c>
@@ -3022,18 +3060,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="B150" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="C150" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>266</v>
       </c>
@@ -3044,7 +3082,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>268</v>
       </c>
@@ -3055,9 +3093,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>270</v>
+        <v>329</v>
       </c>
       <c r="B153" t="s">
         <v>270</v>
@@ -3066,309 +3104,309 @@
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>329</v>
+      </c>
+      <c r="B154" t="s">
         <v>271</v>
-      </c>
-      <c r="B154" t="s">
-        <v>272</v>
       </c>
       <c r="C154" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>272</v>
+      </c>
+      <c r="B155" t="s">
         <v>273</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>274</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>272</v>
+      </c>
+      <c r="B156" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>273</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157" t="s">
         <v>276</v>
       </c>
-      <c r="C156" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>273</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>272</v>
+      </c>
+      <c r="B158" t="s">
         <v>277</v>
       </c>
-      <c r="C157" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>273</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>278</v>
       </c>
-      <c r="C158" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
         <v>279</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>280</v>
       </c>
-      <c r="C159" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
         <v>281</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>282</v>
       </c>
-      <c r="C160" t="s">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B161" t="s">
         <v>284</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>285</v>
       </c>
-      <c r="C161" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B162" t="s">
         <v>286</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>287</v>
       </c>
-      <c r="C162" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
+        <v>287</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>288</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>288</v>
       </c>
-      <c r="C163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="C164" t="s">
         <v>289</v>
       </c>
-      <c r="B164" t="s">
-        <v>289</v>
-      </c>
-      <c r="C164" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
         <v>291</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>292</v>
       </c>
-      <c r="C165" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B166" t="s">
         <v>293</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>294</v>
       </c>
-      <c r="C166" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B167" t="s">
         <v>295</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>296</v>
       </c>
-      <c r="C167" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B168" t="s">
         <v>297</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>298</v>
       </c>
-      <c r="C168" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B169" t="s">
         <v>299</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>300</v>
       </c>
-      <c r="C169" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B170" t="s">
         <v>301</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>300</v>
+      </c>
+      <c r="B171" t="s">
         <v>302</v>
       </c>
-      <c r="C170" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>301</v>
-      </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>303</v>
       </c>
-      <c r="C171" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B172" t="s">
         <v>304</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>305</v>
       </c>
-      <c r="C172" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B173" t="s">
         <v>306</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>307</v>
       </c>
-      <c r="C173" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B174" t="s">
+        <v>307</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>308</v>
       </c>
-      <c r="B174" t="s">
-        <v>308</v>
-      </c>
-      <c r="C174" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B175" t="s">
         <v>309</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>310</v>
       </c>
-      <c r="C175" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B176" t="s">
         <v>311</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>312</v>
       </c>
-      <c r="C176" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="B177" t="s">
         <v>313</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>314</v>
       </c>
-      <c r="C177" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B178" t="s">
         <v>315</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>316</v>
       </c>
-      <c r="C178" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="B179" t="s">
         <v>317</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>318</v>
       </c>
-      <c r="C179" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="B180" t="s">
         <v>319</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>320</v>
       </c>
-      <c r="C180" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="B181" t="s">
         <v>321</v>
-      </c>
-      <c r="B181" t="s">
-        <v>322</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -3376,46 +3414,106 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B182" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C182" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>323</v>
+      </c>
+      <c r="B183" t="s">
         <v>324</v>
       </c>
-      <c r="B183" t="s">
-        <v>325</v>
-      </c>
       <c r="C183" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B184" t="s">
         <v>326</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>329</v>
+      </c>
+      <c r="B185" t="s">
+        <v>327</v>
+      </c>
+      <c r="C185" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>328</v>
+      </c>
+      <c r="B186" t="s">
+        <v>265</v>
+      </c>
+      <c r="C186" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>328</v>
+      </c>
+      <c r="B187" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B188" t="s">
+        <v>331</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B189" t="s">
+        <v>332</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C184" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="BANCO LETSBANK"/>
-        <filter val="CONGLOMERADO: MASTER, WILL, VOITER E LETSBANK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C187" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KEYS_EMISSOR.xlsx
+++ b/KEYS_EMISSOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\tratamento-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C362101D-4EA8-4A71-99A1-8ED4009EA83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44D1244-2BF1-49A3-A1C5-08532B6FFCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$195</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="339">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -1036,13 +1036,28 @@
   </si>
   <si>
     <t>PARANÁ BACO</t>
+  </si>
+  <si>
+    <t>CEF</t>
+  </si>
+  <si>
+    <t>DEUTSCHE LEASING</t>
+  </si>
+  <si>
+    <t>MERCADO LIVRE CFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCADO LIVRE </t>
+  </si>
+  <si>
+    <t>BRDE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,6 +1077,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1099,13 +1120,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,8 +3533,63 @@
         <v>330</v>
       </c>
     </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>201</v>
+      </c>
+      <c r="B191" t="s">
+        <v>334</v>
+      </c>
+      <c r="C191" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>225</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>251</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>251</v>
+      </c>
+      <c r="B194" t="s">
+        <v>337</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>140</v>
+      </c>
+      <c r="B195" t="s">
+        <v>338</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C187" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C195" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/KEYS_EMISSOR.xlsx
+++ b/KEYS_EMISSOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\tratamento-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44D1244-2BF1-49A3-A1C5-08532B6FFCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40B72B3-728D-4B58-B7B7-F82CB2948B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="340">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>BRDE</t>
+  </si>
+  <si>
+    <t>MERCADO PAGO</t>
   </si>
 </sst>
 </file>
@@ -1430,10 +1433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C195"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1641,7 +1645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1696,7 +1700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1707,7 +1711,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1850,7 +1854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -1861,7 +1865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1883,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -1949,7 +1953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -2026,7 +2030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>325</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -2059,7 +2063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -2092,7 +2096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>325</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>325</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -2158,7 +2162,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2224,7 +2228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -2235,7 +2239,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -2257,7 +2261,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>142</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>155</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>157</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>160</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -2433,7 +2437,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>160</v>
       </c>
@@ -2444,7 +2448,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -2455,7 +2459,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>160</v>
       </c>
@@ -2466,7 +2470,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>167</v>
       </c>
@@ -2477,7 +2481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>169</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>171</v>
       </c>
@@ -2499,7 +2503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>175</v>
       </c>
@@ -2521,7 +2525,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>175</v>
       </c>
@@ -2532,7 +2536,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>178</v>
       </c>
@@ -2543,7 +2547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -2576,7 +2580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>183</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -2598,7 +2602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>328</v>
       </c>
@@ -2620,7 +2624,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>191</v>
       </c>
@@ -2631,7 +2635,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -2642,7 +2646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -2653,7 +2657,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>196</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>198</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>201</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>201</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -2708,7 +2712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>209</v>
       </c>
@@ -2730,7 +2734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>211</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>161</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>214</v>
       </c>
@@ -2763,7 +2767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>216</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>218</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>220</v>
       </c>
@@ -2796,7 +2800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -2807,7 +2811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>225</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>227</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>230</v>
       </c>
@@ -2851,7 +2855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>235</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>237</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>239</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>241</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>243</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>245</v>
       </c>
@@ -2928,7 +2932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>247</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>249</v>
       </c>
@@ -2961,7 +2965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>253</v>
       </c>
@@ -2972,7 +2976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -2994,7 +2998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3038,7 +3042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>263</v>
       </c>
@@ -3082,7 +3086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>328</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>266</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>268</v>
       </c>
@@ -3115,7 +3119,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>329</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>329</v>
       </c>
@@ -3137,7 +3141,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>272</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>272</v>
       </c>
@@ -3170,7 +3174,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>272</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>278</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>280</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>283</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>285</v>
       </c>
@@ -3225,7 +3229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>287</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>288</v>
       </c>
@@ -3247,7 +3251,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>290</v>
       </c>
@@ -3258,7 +3262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>292</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>294</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>296</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>298</v>
       </c>
@@ -3302,7 +3306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>300</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>300</v>
       </c>
@@ -3324,7 +3328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>303</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>305</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>307</v>
       </c>
@@ -3357,7 +3361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>308</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>310</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>312</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>314</v>
       </c>
@@ -3401,7 +3405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>316</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>318</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>320</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>325</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>323</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>329</v>
       </c>
@@ -3467,7 +3471,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>329</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>328</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>328</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>330</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>330</v>
       </c>
@@ -3522,7 +3526,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>330</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>201</v>
       </c>
@@ -3544,7 +3548,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>225</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>140</v>
       </c>
@@ -3588,8 +3592,25 @@
         <v>7</v>
       </c>
     </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>251</v>
+      </c>
+      <c r="B196" t="s">
+        <v>339</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C195" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C195" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MERCADO CRÉDITO SCFI (MERCADO LIVRE)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/KEYS_EMISSOR.xlsx
+++ b/KEYS_EMISSOR.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\tratamento-assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\categorizador-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40B72B3-728D-4B58-B7B7-F82CB2948B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BA42BC-BDF8-4978-9AC7-48EF8EC1628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$196</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="343">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -1054,6 +1054,15 @@
   </si>
   <si>
     <t>MERCADO PAGO</t>
+  </si>
+  <si>
+    <t>BANCO PLENO S.A. (VOITER)</t>
+  </si>
+  <si>
+    <t>BANCO PLENO</t>
+  </si>
+  <si>
+    <t>BANCO PLENO S.A.</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1443,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,15 +2039,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>325</v>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="B54" t="s">
         <v>99</v>
       </c>
-      <c r="C54" t="s">
-        <v>100</v>
+      <c r="C54" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2096,7 +2105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>325</v>
       </c>
@@ -2118,7 +2127,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>325</v>
       </c>
@@ -2954,7 +2963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>251</v>
       </c>
@@ -3438,7 +3447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>325</v>
       </c>
@@ -3559,7 +3568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>251</v>
       </c>
@@ -3570,7 +3579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>251</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>251</v>
       </c>
@@ -3603,11 +3612,33 @@
         <v>7</v>
       </c>
     </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B197" t="s">
+        <v>341</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B198" t="s">
+        <v>342</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C195" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:C196" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="MERCADO CRÉDITO SCFI (MERCADO LIVRE)"/>
+        <filter val="CONGLOMERADO: MASTER, WILL, VOITER E LETSBANK"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/KEYS_EMISSOR.xlsx
+++ b/KEYS_EMISSOR.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\categorizador-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BA42BC-BDF8-4978-9AC7-48EF8EC1628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676E349D-3E8E-4633-9475-8F94CC07023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18675" yWindow="2595" windowWidth="15345" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$203</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="347">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -1011,9 +1011,6 @@
     <t>ZEMA</t>
   </si>
   <si>
-    <t>CONGLOMERADO: MASTER, WILL, VOITER E LETSBANK</t>
-  </si>
-  <si>
     <t>BANCO OMNI</t>
   </si>
   <si>
@@ -1063,6 +1060,21 @@
   </si>
   <si>
     <t>BANCO PLENO S.A.</t>
+  </si>
+  <si>
+    <t>BANCO LETSBANK</t>
+  </si>
+  <si>
+    <t>WILL BANK</t>
+  </si>
+  <si>
+    <t>BANCO WILL</t>
+  </si>
+  <si>
+    <t>BANCO MÁXIMA</t>
+  </si>
+  <si>
+    <t>BANCO MAXIMA</t>
   </si>
 </sst>
 </file>
@@ -1132,13 +1144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,11 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1478,7 +1488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1511,7 +1521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1533,7 +1543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1544,7 +1554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1555,7 +1565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1566,7 +1576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1577,7 +1587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1588,7 +1598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1599,7 +1609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1610,7 +1620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1621,7 +1631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1632,7 +1642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1643,7 +1653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1654,7 +1664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1665,7 +1675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1687,7 +1697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1698,7 +1708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1709,7 +1719,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1720,7 +1730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1753,7 +1763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1775,7 +1785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1786,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1797,7 +1807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1808,7 +1818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1819,7 +1829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1830,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -1841,7 +1851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1863,7 +1873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -1874,7 +1884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1885,7 +1895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1896,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -1918,7 +1928,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1929,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -1951,7 +1961,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -1962,7 +1972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -1973,7 +1983,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -1984,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -2006,7 +2016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -2017,7 +2027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -2028,7 +2038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -2041,16 +2051,16 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s">
         <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -2061,7 +2071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -2072,7 +2082,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -2083,7 +2093,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -2094,7 +2104,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -2107,16 +2117,16 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B60" t="s">
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -2129,1319 +2139,1319 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B62" t="s">
+        <v>342</v>
+      </c>
+      <c r="C62" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
         <v>112</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>113</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>114</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>115</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>116</v>
       </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>118</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>120</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>121</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>122</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>123</v>
       </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>124</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>125</v>
       </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>126</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>127</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>128</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>129</v>
       </c>
-      <c r="C70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>130</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>131</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>132</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>133</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>134</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>135</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>140</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>141</v>
       </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>142</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>143</v>
       </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" t="s">
-        <v>145</v>
-      </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>144</v>
       </c>
       <c r="B80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" t="s">
         <v>147</v>
       </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>148</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>149</v>
       </c>
-      <c r="C81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>150</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>151</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>23</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>153</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>138</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>154</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>155</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>156</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>157</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>157</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>158</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>159</v>
       </c>
-      <c r="C87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>160</v>
-      </c>
-      <c r="B88" t="s">
-        <v>161</v>
-      </c>
       <c r="C88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>160</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>160</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>160</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>167</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>168</v>
       </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>169</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>170</v>
       </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>171</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>172</v>
       </c>
-      <c r="C96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>173</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>174</v>
       </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>175</v>
-      </c>
-      <c r="B98" t="s">
-        <v>176</v>
-      </c>
       <c r="C98" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>178</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>179</v>
       </c>
-      <c r="C100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>119</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>180</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>181</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>181</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>183</v>
-      </c>
-      <c r="B103" t="s">
-        <v>184</v>
-      </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>183</v>
       </c>
       <c r="B104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>183</v>
       </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>185</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>185</v>
       </c>
-      <c r="C105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>186</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>187</v>
       </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>328</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>327</v>
+      </c>
+      <c r="B108" t="s">
         <v>188</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>191</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>191</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>192</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>193</v>
       </c>
-      <c r="C109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>194</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>194</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>196</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>197</v>
       </c>
-      <c r="C111" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>198</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>199</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>201</v>
-      </c>
-      <c r="B113" t="s">
-        <v>202</v>
-      </c>
-      <c r="C113" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>201</v>
+      </c>
+      <c r="B115" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>204</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>205</v>
       </c>
-      <c r="C115" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>206</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>207</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>209</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>210</v>
       </c>
-      <c r="C117" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>211</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>212</v>
       </c>
-      <c r="C118" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>161</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>213</v>
       </c>
-      <c r="C119" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>214</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>215</v>
       </c>
-      <c r="C120" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>216</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>217</v>
       </c>
-      <c r="C121" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>218</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>219</v>
       </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>220</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>221</v>
       </c>
-      <c r="C123" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>222</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>223</v>
       </c>
-      <c r="C124" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>224</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>224</v>
       </c>
-      <c r="C125" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>225</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>226</v>
       </c>
-      <c r="C126" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>227</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>228</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>230</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>231</v>
       </c>
-      <c r="C128" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>232</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>233</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>235</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>236</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>237</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>238</v>
       </c>
-      <c r="C131" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>239</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>240</v>
       </c>
-      <c r="C132" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>241</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>242</v>
       </c>
-      <c r="C133" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>243</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>244</v>
       </c>
-      <c r="C134" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>245</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>246</v>
       </c>
-      <c r="C135" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>247</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>248</v>
       </c>
-      <c r="C136" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>249</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>250</v>
       </c>
-      <c r="C137" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>251</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>252</v>
       </c>
-      <c r="C138" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>253</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>254</v>
       </c>
-      <c r="C139" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>7</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
         <v>255</v>
       </c>
-      <c r="C140" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
         <v>256</v>
       </c>
-      <c r="C141" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>7</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
         <v>257</v>
       </c>
-      <c r="C142" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>7</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
         <v>258</v>
       </c>
-      <c r="C143" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>7</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
         <v>259</v>
       </c>
-      <c r="C144" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>7</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
         <v>260</v>
       </c>
-      <c r="C145" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
         <v>261</v>
       </c>
-      <c r="C146" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
         <v>262</v>
       </c>
-      <c r="C147" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" t="s">
-        <v>7</v>
-      </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>263</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>264</v>
       </c>
-      <c r="C149" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>327</v>
+      </c>
+      <c r="B151" t="s">
+        <v>327</v>
+      </c>
+      <c r="C151" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>266</v>
+      </c>
+      <c r="B152" t="s">
+        <v>267</v>
+      </c>
+      <c r="C152" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>268</v>
+      </c>
+      <c r="B153" t="s">
+        <v>268</v>
+      </c>
+      <c r="C153" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>328</v>
       </c>
-      <c r="B150" t="s">
-        <v>328</v>
-      </c>
-      <c r="C150" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>266</v>
-      </c>
-      <c r="B151" t="s">
-        <v>267</v>
-      </c>
-      <c r="C151" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>268</v>
-      </c>
-      <c r="B152" t="s">
-        <v>268</v>
-      </c>
-      <c r="C152" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>329</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>270</v>
-      </c>
-      <c r="C153" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>329</v>
-      </c>
-      <c r="B154" t="s">
-        <v>271</v>
       </c>
       <c r="C154" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C155" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>272</v>
       </c>
       <c r="B156" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C156" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C157" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>272</v>
       </c>
       <c r="B158" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C158" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>272</v>
+      </c>
+      <c r="B159" t="s">
+        <v>277</v>
+      </c>
+      <c r="C159" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>278</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>279</v>
       </c>
-      <c r="C159" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>280</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>281</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>283</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>284</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>285</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>286</v>
       </c>
-      <c r="C162" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>287</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>287</v>
       </c>
-      <c r="C163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>288</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>288</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>290</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>291</v>
       </c>
-      <c r="C165" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>292</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>293</v>
       </c>
-      <c r="C166" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>294</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>295</v>
       </c>
-      <c r="C167" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>296</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>297</v>
       </c>
-      <c r="C168" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>298</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>299</v>
       </c>
-      <c r="C169" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>300</v>
-      </c>
-      <c r="B170" t="s">
-        <v>301</v>
-      </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>300</v>
       </c>
       <c r="B171" t="s">
+        <v>301</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" t="s">
         <v>302</v>
       </c>
-      <c r="C171" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>303</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>304</v>
       </c>
-      <c r="C172" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>305</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>306</v>
       </c>
-      <c r="C173" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>307</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>307</v>
       </c>
-      <c r="C174" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="C175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>308</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>309</v>
       </c>
-      <c r="C175" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>310</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>311</v>
       </c>
-      <c r="C176" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>312</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>313</v>
       </c>
-      <c r="C177" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>314</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>315</v>
       </c>
-      <c r="C178" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>316</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>317</v>
       </c>
-      <c r="C179" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>318</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>319</v>
-      </c>
-      <c r="C180" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>320</v>
-      </c>
-      <c r="B181" t="s">
-        <v>321</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -3449,199 +3459,248 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>320</v>
+      </c>
+      <c r="B182" t="s">
+        <v>321</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>343</v>
+      </c>
+      <c r="B183" t="s">
+        <v>322</v>
+      </c>
+      <c r="C183" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>323</v>
+      </c>
+      <c r="B184" t="s">
+        <v>324</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>328</v>
+      </c>
+      <c r="B185" t="s">
         <v>325</v>
-      </c>
-      <c r="B182" t="s">
-        <v>322</v>
-      </c>
-      <c r="C182" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>323</v>
-      </c>
-      <c r="B183" t="s">
-        <v>324</v>
-      </c>
-      <c r="C183" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>329</v>
-      </c>
-      <c r="B184" t="s">
-        <v>326</v>
-      </c>
-      <c r="C184" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>329</v>
-      </c>
-      <c r="B185" t="s">
-        <v>327</v>
       </c>
       <c r="C185" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>328</v>
       </c>
       <c r="B186" t="s">
+        <v>326</v>
+      </c>
+      <c r="C186" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>327</v>
+      </c>
+      <c r="B187" t="s">
         <v>265</v>
-      </c>
-      <c r="C186" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>328</v>
-      </c>
-      <c r="B187" t="s">
-        <v>189</v>
       </c>
       <c r="C187" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>327</v>
+      </c>
+      <c r="B188" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B189" t="s">
         <v>330</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C189" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B190" t="s">
         <v>331</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B189" t="s">
+      <c r="C190" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B191" t="s">
         <v>332</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B190" s="3" t="s">
+      <c r="C191" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>201</v>
+      </c>
+      <c r="B192" t="s">
         <v>333</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="C192" t="s">
         <v>201</v>
       </c>
-      <c r="B191" t="s">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>225</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C191" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>225</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C192" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>251</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="C193" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>251</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>251</v>
+      </c>
+      <c r="B195" t="s">
+        <v>336</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>140</v>
+      </c>
+      <c r="B196" t="s">
         <v>337</v>
       </c>
-      <c r="C194" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>140</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>251</v>
+      </c>
+      <c r="B197" t="s">
         <v>338</v>
       </c>
-      <c r="C195" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>251</v>
-      </c>
-      <c r="B196" t="s">
-        <v>339</v>
-      </c>
-      <c r="C196" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B197" t="s">
-        <v>341</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>340</v>
+      <c r="C197" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B198" t="s">
         <v>340</v>
       </c>
-      <c r="B198" t="s">
-        <v>342</v>
-      </c>
       <c r="C198" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B199" t="s">
+        <v>341</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>343</v>
+      </c>
+      <c r="B200" t="s">
+        <v>343</v>
+      </c>
+      <c r="C200" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>343</v>
+      </c>
+      <c r="B201" t="s">
+        <v>344</v>
+      </c>
+      <c r="C201" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>100</v>
+      </c>
+      <c r="B202" t="s">
+        <v>345</v>
+      </c>
+      <c r="C202" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>100</v>
+      </c>
+      <c r="B203" t="s">
+        <v>346</v>
+      </c>
+      <c r="C203" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C196" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CONGLOMERADO: MASTER, WILL, VOITER E LETSBANK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C203" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/KEYS_EMISSOR.xlsx
+++ b/KEYS_EMISSOR.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\categorizador-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676E349D-3E8E-4633-9475-8F94CC07023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F309A75-E025-4F10-95A0-A1497E6AE9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18675" yWindow="2595" windowWidth="15345" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="349">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -1075,6 +1075,12 @@
   </si>
   <si>
     <t>BANCO MAXIMA</t>
+  </si>
+  <si>
+    <t>BANCO BDMG</t>
+  </si>
+  <si>
+    <t>BANCO DE DESENVOLVIMENTO DE MINAS GERAIS</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C203"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1499,7 +1506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1510,7 +1517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1543,7 +1550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1554,7 +1561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1565,7 +1572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1587,7 +1594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1609,7 +1616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +1627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1631,7 +1638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1642,7 +1649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1653,7 +1660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1675,7 +1682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1686,7 +1693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1697,7 +1704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1708,7 +1715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1719,7 +1726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1730,7 +1737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1741,7 +1748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1752,7 +1759,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1763,7 +1770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1774,7 +1781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1785,7 +1792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1807,7 +1814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1818,7 +1825,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1829,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1840,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -1851,7 +1858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -1873,7 +1880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -1884,7 +1891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1895,7 +1902,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1906,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -1917,7 +1924,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -1928,7 +1935,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1939,7 +1946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -1950,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -1961,7 +1968,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -1972,7 +1979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -1983,7 +1990,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -1994,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -2005,7 +2012,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -2016,7 +2023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -2027,7 +2034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -2038,7 +2045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -2049,7 +2056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>339</v>
       </c>
@@ -2060,7 +2067,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -2104,7 +2111,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -2115,7 +2122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>342</v>
       </c>
@@ -2126,7 +2133,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -2137,7 +2144,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>342</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -2159,7 +2166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>113</v>
       </c>
@@ -2170,7 +2177,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>115</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -2192,7 +2199,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -2203,7 +2210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -2214,7 +2221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -2247,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -2269,7 +2276,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -2280,7 +2287,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -2291,7 +2298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -2302,7 +2309,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -2313,7 +2320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -2324,7 +2331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -2335,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -2346,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>144</v>
       </c>
@@ -2357,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -2368,7 +2375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -2390,7 +2397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>138</v>
       </c>
@@ -2401,7 +2408,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>157</v>
       </c>
@@ -2423,7 +2430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>158</v>
       </c>
@@ -2434,7 +2441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>160</v>
       </c>
@@ -2445,7 +2452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -2456,7 +2463,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>160</v>
       </c>
@@ -2467,7 +2474,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>160</v>
       </c>
@@ -2489,7 +2496,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>160</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -2511,7 +2518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -2522,7 +2529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>171</v>
       </c>
@@ -2533,7 +2540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>173</v>
       </c>
@@ -2544,7 +2551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>175</v>
       </c>
@@ -2555,7 +2562,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>175</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>178</v>
       </c>
@@ -2577,7 +2584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>181</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>183</v>
       </c>
@@ -2610,7 +2617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>183</v>
       </c>
@@ -2621,7 +2628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>185</v>
       </c>
@@ -2632,7 +2639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>186</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>327</v>
       </c>
@@ -2654,7 +2661,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -2665,7 +2672,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>194</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>196</v>
       </c>
@@ -2698,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>198</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>201</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>201</v>
       </c>
@@ -2731,7 +2738,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -2753,7 +2760,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -2764,7 +2771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>211</v>
       </c>
@@ -2775,7 +2782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -2786,7 +2793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>214</v>
       </c>
@@ -2797,7 +2804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>216</v>
       </c>
@@ -2808,7 +2815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>218</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>220</v>
       </c>
@@ -2830,7 +2837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>222</v>
       </c>
@@ -2841,7 +2848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>224</v>
       </c>
@@ -2852,7 +2859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>225</v>
       </c>
@@ -2863,7 +2870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>227</v>
       </c>
@@ -2874,7 +2881,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>230</v>
       </c>
@@ -2885,7 +2892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>232</v>
       </c>
@@ -2896,7 +2903,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>235</v>
       </c>
@@ -2907,7 +2914,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>237</v>
       </c>
@@ -2918,7 +2925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>239</v>
       </c>
@@ -2929,7 +2936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>241</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>243</v>
       </c>
@@ -2951,7 +2958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>245</v>
       </c>
@@ -2962,7 +2969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>247</v>
       </c>
@@ -2973,7 +2980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>249</v>
       </c>
@@ -2984,7 +2991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>251</v>
       </c>
@@ -2995,7 +3002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>253</v>
       </c>
@@ -3006,7 +3013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3017,7 +3024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3050,7 +3057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3061,7 +3068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3072,7 +3079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3083,7 +3090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3094,7 +3101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3105,7 +3112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>263</v>
       </c>
@@ -3116,7 +3123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>327</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>266</v>
       </c>
@@ -3138,7 +3145,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>268</v>
       </c>
@@ -3149,7 +3156,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>328</v>
       </c>
@@ -3160,7 +3167,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>328</v>
       </c>
@@ -3171,7 +3178,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>272</v>
       </c>
@@ -3182,7 +3189,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>272</v>
       </c>
@@ -3193,7 +3200,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>272</v>
       </c>
@@ -3204,7 +3211,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>272</v>
       </c>
@@ -3215,7 +3222,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>278</v>
       </c>
@@ -3226,7 +3233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>280</v>
       </c>
@@ -3237,7 +3244,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>283</v>
       </c>
@@ -3248,7 +3255,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>285</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>287</v>
       </c>
@@ -3270,7 +3277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>288</v>
       </c>
@@ -3281,7 +3288,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>290</v>
       </c>
@@ -3292,7 +3299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>292</v>
       </c>
@@ -3314,7 +3321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>296</v>
       </c>
@@ -3325,7 +3332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>298</v>
       </c>
@@ -3336,7 +3343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>300</v>
       </c>
@@ -3347,7 +3354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>300</v>
       </c>
@@ -3358,7 +3365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>303</v>
       </c>
@@ -3369,7 +3376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>305</v>
       </c>
@@ -3380,7 +3387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>307</v>
       </c>
@@ -3391,7 +3398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>308</v>
       </c>
@@ -3402,7 +3409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>310</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>312</v>
       </c>
@@ -3424,7 +3431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>314</v>
       </c>
@@ -3435,7 +3442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>316</v>
       </c>
@@ -3446,7 +3453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>318</v>
       </c>
@@ -3457,7 +3464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>320</v>
       </c>
@@ -3468,7 +3475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>343</v>
       </c>
@@ -3479,7 +3486,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>323</v>
       </c>
@@ -3490,7 +3497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>328</v>
       </c>
@@ -3501,7 +3508,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>328</v>
       </c>
@@ -3512,7 +3519,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>327</v>
       </c>
@@ -3523,7 +3530,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>327</v>
       </c>
@@ -3534,7 +3541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>329</v>
       </c>
@@ -3545,7 +3552,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>329</v>
       </c>
@@ -3556,7 +3563,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>329</v>
       </c>
@@ -3567,7 +3574,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>201</v>
       </c>
@@ -3578,7 +3585,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>225</v>
       </c>
@@ -3589,7 +3596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>251</v>
       </c>
@@ -3600,7 +3607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>251</v>
       </c>
@@ -3611,7 +3618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>140</v>
       </c>
@@ -3622,7 +3629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>251</v>
       </c>
@@ -3633,7 +3640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>339</v>
       </c>
@@ -3644,7 +3651,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>339</v>
       </c>
@@ -3655,7 +3662,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>343</v>
       </c>
@@ -3666,7 +3673,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>343</v>
       </c>
@@ -3677,7 +3684,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>100</v>
       </c>
@@ -3688,7 +3695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>100</v>
       </c>
@@ -3699,8 +3706,48 @@
         <v>100</v>
       </c>
     </row>
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>75</v>
+      </c>
+      <c r="B204" t="s">
+        <v>347</v>
+      </c>
+      <c r="C204" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>75</v>
+      </c>
+      <c r="B205" t="s">
+        <v>348</v>
+      </c>
+      <c r="C205" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>103</v>
+      </c>
+      <c r="B206" t="s">
+        <v>103</v>
+      </c>
+      <c r="C206" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C203" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C205" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BANCO ITAÚ"/>
+        <filter val="RPW SCFI (EMPRESTA CAPITAL)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
